--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44005,6 +44005,41 @@
         <v>1128600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>5133300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44040,6 +44040,41 @@
         <v>5133300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>6078000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44075,6 +44075,41 @@
         <v>6078000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>4142400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44110,6 +44110,41 @@
         <v>4142400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>4822100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44145,6 +44145,41 @@
         <v>4822100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1716900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44180,6 +44180,41 @@
         <v>1716900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>995200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44215,6 +44215,41 @@
         <v>995200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>754200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44250,6 +44250,41 @@
         <v>754200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>270100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44285,6 +44285,41 @@
         <v>270100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3010300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44320,6 +44320,41 @@
         <v>3010300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1515800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44355,6 +44355,41 @@
         <v>1515800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>553000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44390,6 +44390,41 @@
         <v>553000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>688600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44425,6 +44425,76 @@
         <v>688600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>871200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>970600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44495,6 +44495,76 @@
         <v>970600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>839900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>541200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44565,6 +44565,41 @@
         <v>541200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>668900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44600,6 +44600,41 @@
         <v>668900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>493700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44635,6 +44635,41 @@
         <v>493700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>493100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44670,6 +44670,41 @@
         <v>493100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>984200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44705,6 +44705,76 @@
         <v>984200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>554200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>950000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44775,6 +44775,41 @@
         <v>950000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>466900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44810,6 +44810,41 @@
         <v>466900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>881400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1557"/>
+  <dimension ref="A1:I1558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55905,6 +55905,41 @@
         <v>881400</v>
       </c>
     </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1558" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>1184700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1558"/>
+  <dimension ref="A1:I1559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55940,6 +55940,41 @@
         <v>1184700</v>
       </c>
     </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1559" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>1345900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1559"/>
+  <dimension ref="A1:I1560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55975,6 +55975,41 @@
         <v>1345900</v>
       </c>
     </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1560" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>1387200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1560"/>
+  <dimension ref="A1:I1561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56010,6 +56010,41 @@
         <v>1387200</v>
       </c>
     </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1561" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>1093400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1561"/>
+  <dimension ref="A1:I1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56045,6 +56045,41 @@
         <v>1093400</v>
       </c>
     </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1562" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>3393900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1562"/>
+  <dimension ref="A1:I1563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56080,6 +56080,41 @@
         <v>3393900</v>
       </c>
     </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1563" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>1081600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1563"/>
+  <dimension ref="A1:I1564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56115,6 +56115,41 @@
         <v>1081600</v>
       </c>
     </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1564" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>1096700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1564"/>
+  <dimension ref="A1:I1565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56150,6 +56150,41 @@
         <v>1096700</v>
       </c>
     </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1565" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>3121800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1565"/>
+  <dimension ref="A1:I1566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56185,6 +56185,41 @@
         <v>3121800</v>
       </c>
     </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1566" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>3063500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1566"/>
+  <dimension ref="A1:I1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56220,6 +56220,41 @@
         <v>3063500</v>
       </c>
     </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1567" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>4318800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1567"/>
+  <dimension ref="A1:I1568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56255,6 +56255,41 @@
         <v>4318800</v>
       </c>
     </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1568" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>2412000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1568"/>
+  <dimension ref="A1:I1569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56290,6 +56290,41 @@
         <v>2412000</v>
       </c>
     </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1569" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>5893800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1569"/>
+  <dimension ref="A1:I1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56325,6 +56325,41 @@
         <v>5893800</v>
       </c>
     </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1570" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>8987100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1570"/>
+  <dimension ref="A1:I1571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56360,6 +56360,41 @@
         <v>8987100</v>
       </c>
     </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1571" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>3761100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1571"/>
+  <dimension ref="A1:I1572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56395,6 +56395,41 @@
         <v>3761100</v>
       </c>
     </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E1572" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>2129200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2647"/>
+  <dimension ref="A1:I2648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94055,6 +94055,41 @@
         <v>2129200</v>
       </c>
     </row>
+    <row r="2648">
+      <c r="A2648" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2648" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2648" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G2648" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H2648" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2648" t="n">
+        <v>1688800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2648"/>
+  <dimension ref="A1:I2649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94090,6 +94090,41 @@
         <v>1688800</v>
       </c>
     </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2649" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F2649" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G2649" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2649" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2649" t="n">
+        <v>2493500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2649"/>
+  <dimension ref="A1:I2650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94125,6 +94125,41 @@
         <v>2493500</v>
       </c>
     </row>
+    <row r="2650">
+      <c r="A2650" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2650" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2650" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2650" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2650" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2650" t="n">
+        <v>1205900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2650"/>
+  <dimension ref="A1:I2651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94160,6 +94160,41 @@
         <v>1205900</v>
       </c>
     </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2651" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F2651" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2651" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2651" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I2651" t="n">
+        <v>721000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2651"/>
+  <dimension ref="A1:I2652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94195,6 +94195,41 @@
         <v>721000</v>
       </c>
     </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2652" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F2652" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G2652" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H2652" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I2652" t="n">
+        <v>1731800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2652"/>
+  <dimension ref="A1:I2653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94230,6 +94230,41 @@
         <v>1731800</v>
       </c>
     </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2653" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2653" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G2653" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H2653" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I2653" t="n">
+        <v>587300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2653"/>
+  <dimension ref="A1:I2654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94265,6 +94265,41 @@
         <v>587300</v>
       </c>
     </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2654" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F2654" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G2654" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H2654" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2654" t="n">
+        <v>1170200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2654"/>
+  <dimension ref="A1:I2655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94300,6 +94300,41 @@
         <v>1170200</v>
       </c>
     </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2655" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F2655" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2655" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H2655" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I2655" t="n">
+        <v>1601100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2655"/>
+  <dimension ref="A1:I2656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94335,6 +94335,41 @@
         <v>1601100</v>
       </c>
     </row>
+    <row r="2656">
+      <c r="A2656" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2656" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F2656" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2656" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H2656" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I2656" t="n">
+        <v>950700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2656"/>
+  <dimension ref="A1:I2657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94370,6 +94370,41 @@
         <v>950700</v>
       </c>
     </row>
+    <row r="2657">
+      <c r="A2657" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2657" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F2657" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2657" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H2657" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2657" t="n">
+        <v>1557200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2657"/>
+  <dimension ref="A1:I2659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94405,6 +94405,76 @@
         <v>1557200</v>
       </c>
     </row>
+    <row r="2658">
+      <c r="A2658" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2658" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F2658" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G2658" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H2658" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2658" t="n">
+        <v>1266400</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2659" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2659" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G2659" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H2659" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2659" t="n">
+        <v>1355600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2659"/>
+  <dimension ref="A1:I2660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94475,6 +94475,41 @@
         <v>1355600</v>
       </c>
     </row>
+    <row r="2660">
+      <c r="A2660" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2660" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2660" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G2660" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2660" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I2660" t="n">
+        <v>1187400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2660"/>
+  <dimension ref="A1:I2663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94510,6 +94510,111 @@
         <v>1187400</v>
       </c>
     </row>
+    <row r="2661">
+      <c r="A2661" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2661" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F2661" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2661" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H2661" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I2661" t="n">
+        <v>927500</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2662" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2662" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F2662" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G2662" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H2662" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I2662" t="n">
+        <v>217000</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2663" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F2663" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G2663" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2663" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I2663" t="n">
+        <v>427200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2663"/>
+  <dimension ref="A1:I2664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94615,6 +94615,41 @@
         <v>427200</v>
       </c>
     </row>
+    <row r="2664">
+      <c r="A2664" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2664" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F2664" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G2664" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2664" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I2664" t="n">
+        <v>432500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2664"/>
+  <dimension ref="A1:I2665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94650,6 +94650,41 @@
         <v>432500</v>
       </c>
     </row>
+    <row r="2665">
+      <c r="A2665" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2665" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F2665" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G2665" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H2665" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I2665" t="n">
+        <v>424200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7130.xlsx
+++ b/data/7130.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2665"/>
+  <dimension ref="A1:I2668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94685,6 +94685,111 @@
         <v>424200</v>
       </c>
     </row>
+    <row r="2666">
+      <c r="A2666" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2666" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F2666" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2666" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H2666" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I2666" t="n">
+        <v>254100</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2667" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2667" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2667" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2667" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I2667" t="n">
+        <v>795000</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="E2668" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2668" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G2668" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2668" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I2668" t="n">
+        <v>519100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
